--- a/Preise.xlsx
+++ b/Preise.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22508"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernd.Held\Desktop\VBA-Tanker Upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\VBA Tage\VBA Tage 2019\VBA-Tanker\VBATanker\Downloads\Beispiel 10722\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D39E576-3CCD-4BC9-BBBF-7F556667FFCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F548A3-4C89-4E7C-BAE2-6101907E738A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="2490" windowWidth="19770" windowHeight="16050" xr2:uid="{9293138A-368B-43BB-93D9-9979760E3176}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9293138A-368B-43BB-93D9-9979760E3176}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -390,8 +392,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +480,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4705</v>
+        <v>5005</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -486,7 +488,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4790</v>
+        <v>5090</v>
       </c>
       <c r="B12">
         <v>75</v>

--- a/Preise.xlsx
+++ b/Preise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\VBA Tage\VBA Tage 2019\VBA-Tanker\VBATanker\Downloads\Beispiel 10722\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F548A3-4C89-4E7C-BAE2-6101907E738A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2E1C41-FD4A-4787-B5FA-EB31F4249F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9293138A-368B-43BB-93D9-9979760E3176}"/>
+    <workbookView xWindow="-28500" yWindow="2580" windowWidth="7950" windowHeight="11385" xr2:uid="{9293138A-368B-43BB-93D9-9979760E3176}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +480,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5005</v>
+        <v>3005</v>
       </c>
       <c r="B11">
         <v>3</v>
